--- a/TestData/tp.xlsx
+++ b/TestData/tp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBAC328-D2D6-4EB5-A059-EA0D5B458261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FA3893-0D77-433A-8F4F-FCC1C2761421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DR Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>StartTime</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>notification for fail cases</t>
   </si>
   <si>
@@ -75,20 +72,26 @@
     <t>To Min</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
     <t>02/22/2023 16:54</t>
   </si>
   <si>
-    <t>pranavpawar309@gmail.com</t>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>[pranavpawar309@gmail.com, pranavpawar3091@gmail.com]</t>
+  </si>
+  <si>
+    <t>Emails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +103,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,19 +125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,14 +416,14 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -455,46 +447,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -502,9 +494,9 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="b">
@@ -513,11 +505,12 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C3EC5017-A1A6-4EAB-B7BD-2EA29327EC62}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/tp.xlsx
+++ b/TestData/tp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\secondFlow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D8283-0821-40C6-B377-1C038D076F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D11B06-3FAA-4C11-BD8D-4EB156CB3AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2700" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,93 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Wave Name</t>
   </si>
   <si>
-    <t>Target Type</t>
-  </si>
-  <si>
-    <t>Image Name</t>
-  </si>
-  <si>
-    <t>Host Number In Wave</t>
-  </si>
-  <si>
-    <t>Existing System</t>
-  </si>
-  <si>
-    <t>Sync Type</t>
-  </si>
-  <si>
-    <t>Stage 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Passthrough</t>
-  </si>
-  <si>
-    <t>Target IP</t>
-  </si>
-  <si>
-    <t>Friendly Name</t>
-  </si>
-  <si>
-    <t>psp-MyWinSecondFlow-src1-IMAGE</t>
-  </si>
-  <si>
-    <t>psp-MyWinSecondFlow-src2-IMAGE</t>
-  </si>
-  <si>
-    <t>psp-MyWinSecondFlow-tgt1</t>
-  </si>
-  <si>
-    <t>psp-MyWinSecondFlow-tgt2</t>
-  </si>
-  <si>
-    <t>172.29.30.132</t>
-  </si>
-  <si>
-    <t>172.29.30.134</t>
-  </si>
-  <si>
-    <t>Capture</t>
-  </si>
-  <si>
-    <t>psp-MyLin2-src-IMAGE</t>
-  </si>
-  <si>
-    <t>psp-MyLin1-src-IMAGE</t>
-  </si>
-  <si>
-    <t>Direct Sync</t>
-  </si>
-  <si>
-    <t>psp-MyLinSecondFlow-tgt2</t>
-  </si>
-  <si>
-    <t>psp-MyLinSecondFlow-tgt1</t>
-  </si>
-  <si>
-    <t>172.29.30.141</t>
-  </si>
-  <si>
-    <t>172.29.30.203</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>SYSTEM</t>
-  </si>
-  <si>
-    <t>root</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>File Path Which Includes Data Related To Operation</t>
+  </si>
+  <si>
+    <t>Row start from excel file</t>
+  </si>
+  <si>
+    <t>Row end from excel file</t>
+  </si>
+  <si>
+    <t>Passthrough (True/False)</t>
+  </si>
+  <si>
+    <t>Host Name</t>
+  </si>
+  <si>
+    <t>Parallel Count</t>
+  </si>
+  <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Test Mode (True/False)</t>
+  </si>
+  <si>
+    <t>Cloud / vCenter Name</t>
+  </si>
+  <si>
+    <t>Delete RMM Sync Details Of Wave</t>
+  </si>
+  <si>
+    <t>Existing Systems</t>
   </si>
 </sst>
 </file>
@@ -161,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,189 +399,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/tp.xlsx
+++ b/TestData/tp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D11B06-3FAA-4C11-BD8D-4EB156CB3AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE501707-1919-49C1-B25C-8FEF8D2E0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="900" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>File Path Which Includes Data Related To Operation</t>
+  </si>
+  <si>
+    <t>Row start from excel file</t>
+  </si>
+  <si>
+    <t>Row end from excel file</t>
+  </si>
   <si>
     <t>Wave Name</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>File Path Which Includes Data Related To Operation</t>
-  </si>
-  <si>
-    <t>Row start from excel file</t>
-  </si>
-  <si>
-    <t>Row end from excel file</t>
-  </si>
-  <si>
     <t>Passthrough (True/False)</t>
   </si>
   <si>
@@ -60,17 +60,50 @@
     <t>Cloud / vCenter Name</t>
   </si>
   <si>
-    <t>Delete RMM Sync Details Of Wave</t>
-  </si>
-  <si>
-    <t>Existing Systems</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Create wave with host</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/createWaveWithHost.xlsx</t>
+  </si>
+  <si>
+    <t>Add new host in wave</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/addNewHost.xlsx</t>
+  </si>
+  <si>
+    <t>Bulk edit sync options</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/bulkEditOptions.xlsx</t>
+  </si>
+  <si>
+    <t>Set autoprovision</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/setAutoprovisionAndNIC.xlsx</t>
+  </si>
+  <si>
+    <t>Set Parallel Count</t>
+  </si>
+  <si>
+    <t>First Flow</t>
+  </si>
+  <si>
+    <t>Tear Down</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/tear_down.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +115,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,10 +142,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:K2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -420,51 +447,123 @@
     <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
